--- a/OUTPUT GRAPHS.xlsx
+++ b/OUTPUT GRAPHS.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/145dda011d3e2932/Documents/(B) Computer Science/Coding Projects/Project 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will\OneDrive\Documents\(B) Computer Science\Coding Projects\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="8_{C9D0A8F6-8F21-40CF-9AC6-ED1280F37C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D97DFF85-435A-43F0-AF9D-056EB8EBDA0F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F9A290-E001-44D4-B293-A77AF53D18E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{4BBE9322-4B3C-4BC7-8E38-5CF53CBB5DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="OUTPUT GRAPHS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="17">
   <si>
     <t>Sorted BST Insert</t>
   </si>
@@ -78,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -559,7 +572,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -3631,6 +3644,2887 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sorted BST vs. AVL Insert Runtimes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OUTPUT GRAPHS'!$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$A$59:$A$76</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$A$60:$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$B$60:$B$76</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$B$61:$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.2572E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1868000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6620000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3830000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6064000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6293000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0110000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7133900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4064000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7672400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.27552E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0240699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1046489</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15221590000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47375560000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5639054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-271C-4BF1-9409-237F5464765A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OUTPUT GRAPHS'!$C$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$A$59:$A$76</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$A$60:$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$C$60:$C$76</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$C$61:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.7609000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2460000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0043999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3615000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1774000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1813000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6361000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3727999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.19325E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8940500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1499500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3354000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2702200000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10489200000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20500070000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32805190000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-271C-4BF1-9409-237F5464765A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1851668287"/>
+        <c:axId val="1851668767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1851668287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lines</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851668767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1851668767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851668287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sorted BST vs. AVL Insert Runtimes (ln)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OUTPUT GRAPHS'!$F$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln(BST)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$E$78:$E$95</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$E$79:$E$95</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$F$79:$F$95</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$F$80:$F$95</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>15.264122225149027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.461627494656867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.35495509857784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.498756397543094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.539419360284155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.970673947371212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.816727761748833</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.656569515140315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.996227505731703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.13594608453948</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.571001383376711</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.200541425408417</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.466121495573137</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.840810465740997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.976202134871521</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.150397064897547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-812E-41FC-82C4-A45A0BB9B34F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OUTPUT GRAPHS'!$G$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln(AVL)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$E$78:$E$95</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$E$79:$E$95</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$G$79:$G$95</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$G$80:$G$95</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>14.381335599948869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.992934027056673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.510855322067707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.674807568318309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.97157381026806</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.972800476249796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.349384053528384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.940498914600081</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.294776327862188</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.756813044528982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.541191936935576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.322688263163663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.101882203393888</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.468441807350626</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.138523951730999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.608682385538419</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-812E-41FC-82C4-A45A0BB9B34F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1851682207"/>
+        <c:axId val="1851682687"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1851682207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lines</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851682687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1851682687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time ln(ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851682207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sorted BST vs. AVL Search Runtimes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OUTPUT GRAPHS'!$Q$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$P$60:$P$77</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$P$61:$P$77</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$Q$61:$Q$77</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$Q$62:$Q$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.156E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7380000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.284E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.259E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0360000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9490000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1290000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0670000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.03E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7310000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3140000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6678000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4960000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9170000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8327E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1087000000000007E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5DC-4CEE-973E-4B7F6FF45D2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OUTPUT GRAPHS'!$R$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$P$60:$P$77</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$P$61:$P$77</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$R$61:$R$77</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$R$62:$R$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7690000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5190000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1630000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6900000000000012E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.038E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.75E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2550000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1570000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.48E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.127E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.305E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2970000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5450000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D5DC-4CEE-973E-4B7F6FF45D2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="62945791"/>
+        <c:axId val="62951551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="62945791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lines</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62951551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62951551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62945791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sorted BST vs. AVL Search Runtimes (ln)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OUTPUT GRAPHS'!$U$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln(BST)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$T$79:$T$96</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$T$80:$T$96</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$U$80:$U$96</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$U$81:$U$96</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>11.657891235220415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.065660491813428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.762905670237998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.743243220032438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.223912563658505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.180241885495652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.26857785088157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.633625350102342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.220961258023925</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.517593307461796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.351903093741713</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.327015950635023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.216946019890276</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.290755028664785</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.421300847305968</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.446455526682806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E807-470D-9446-45ABAB43B784}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OUTPUT GRAPHS'!$V$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln(AVL)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$T$79:$T$96</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$T$80:$T$96</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'OUTPUT GRAPHS'!$V$80:$V$96</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'OUTPUT GRAPHS'!$V$81:$V$96</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>11.512925464970229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.083339880147877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.771102323309677</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.663928338506755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.314474526246391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.372513311253483</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.550221249713925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.258033215341438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.740061037553975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.658755913181768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.459524688243112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.632484700027868</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.532728092266408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.779128505744886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.34452938867719</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.447056114972714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E807-470D-9446-45ABAB43B784}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="62926591"/>
+        <c:axId val="62930911"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="62926591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lines</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62930911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62930911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time ln(ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62926591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3791,6 +6685,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5340,6 +8394,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5996,6 +11114,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>606424</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>527049</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067407CE-E9E0-EAD6-D8E5-06E9CD045EDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>606424</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>520699</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12201DF8-9E7D-7F56-08A5-77A9DAFE3FFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>606424</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>539749</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3253AF2E-C69D-B160-A5D5-71747B7B3E06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>565149</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB548CE-6D31-F78A-AF11-5296364C6802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6321,15 +11583,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25ED811E-B3E0-4CCA-8B2B-6C11037DA494}">
-  <dimension ref="A1:AE57"/>
+  <dimension ref="A1:AE96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W43" sqref="W43"/>
+    <sheetView tabSelected="1" topLeftCell="N59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.36328125" bestFit="1" customWidth="1"/>
@@ -7742,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" ref="Q23:R23" si="2">Q42*10^-9</f>
+        <f t="shared" ref="Q23" si="2">Q42*10^-9</f>
         <v>6.2399999999999999E-5</v>
       </c>
       <c r="R23" s="1">
@@ -7766,7 +13029,7 @@
         <v>4</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" ref="Q24:R24" si="3">Q43*10^-9</f>
+        <f t="shared" ref="Q24" si="3">Q43*10^-9</f>
         <v>6.9599999999999998E-5</v>
       </c>
       <c r="R24" s="1">
@@ -7790,7 +13053,7 @@
         <v>8</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" ref="Q25:R25" si="4">Q44*10^-9</f>
+        <f t="shared" ref="Q25" si="4">Q44*10^-9</f>
         <v>8.0200000000000011E-5</v>
       </c>
       <c r="R25" s="1">
@@ -7814,7 +13077,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" ref="Q26:R26" si="5">Q45*10^-9</f>
+        <f t="shared" ref="Q26" si="5">Q45*10^-9</f>
         <v>7.2600000000000003E-5</v>
       </c>
       <c r="R26" s="1">
@@ -7838,7 +13101,7 @@
         <v>32</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" ref="Q27:R27" si="6">Q46*10^-9</f>
+        <f t="shared" ref="Q27" si="6">Q46*10^-9</f>
         <v>8.1899999999999999E-5</v>
       </c>
       <c r="R27" s="1">
@@ -7862,7 +13125,7 @@
         <v>64</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" ref="Q28:R28" si="7">Q47*10^-9</f>
+        <f t="shared" ref="Q28" si="7">Q47*10^-9</f>
         <v>9.2200000000000005E-5</v>
       </c>
       <c r="R28" s="1">
@@ -7886,7 +13149,7 @@
         <v>128</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" ref="Q29:R29" si="8">Q48*10^-9</f>
+        <f t="shared" ref="Q29" si="8">Q48*10^-9</f>
         <v>1.2080000000000001E-4</v>
       </c>
       <c r="R29" s="1">
@@ -7910,7 +13173,7 @@
         <v>256</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" ref="Q30:R30" si="9">Q49*10^-9</f>
+        <f t="shared" ref="Q30" si="9">Q49*10^-9</f>
         <v>1.895E-4</v>
       </c>
       <c r="R30" s="1">
@@ -7934,7 +13197,7 @@
         <v>512</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" ref="Q31:R31" si="10">Q50*10^-9</f>
+        <f t="shared" ref="Q31" si="10">Q50*10^-9</f>
         <v>8.1100000000000006E-5</v>
       </c>
       <c r="R31" s="1">
@@ -7958,7 +13221,7 @@
         <v>1024</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" ref="Q32:R32" si="11">Q51*10^-9</f>
+        <f t="shared" ref="Q32" si="11">Q51*10^-9</f>
         <v>1.6260000000000002E-4</v>
       </c>
       <c r="R32" s="1">
@@ -7982,7 +13245,7 @@
         <v>2048</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" ref="Q33:R33" si="12">Q52*10^-9</f>
+        <f t="shared" ref="Q33" si="12">Q52*10^-9</f>
         <v>1.3080000000000001E-4</v>
       </c>
       <c r="R33" s="1">
@@ -8006,7 +13269,7 @@
         <v>4096</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" ref="Q34:R34" si="13">Q53*10^-9</f>
+        <f t="shared" ref="Q34" si="13">Q53*10^-9</f>
         <v>4.0730000000000003E-4</v>
       </c>
       <c r="R34" s="1">
@@ -8030,7 +13293,7 @@
         <v>8192</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" ref="Q35:R35" si="14">Q54*10^-9</f>
+        <f t="shared" ref="Q35" si="14">Q54*10^-9</f>
         <v>2.787E-4</v>
       </c>
       <c r="R35" s="1">
@@ -8054,7 +13317,7 @@
         <v>16384</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" ref="Q36:R36" si="15">Q55*10^-9</f>
+        <f t="shared" ref="Q36" si="15">Q55*10^-9</f>
         <v>2.4880000000000003E-4</v>
       </c>
       <c r="R36" s="1">
@@ -8078,7 +13341,7 @@
         <v>32768</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" ref="Q37:R37" si="16">Q56*10^-9</f>
+        <f t="shared" ref="Q37" si="16">Q56*10^-9</f>
         <v>2.6764000000000002E-3</v>
       </c>
       <c r="R37" s="1">
@@ -8091,7 +13354,7 @@
         <v>65536</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" ref="Q38:R38" si="17">Q57*10^-9</f>
+        <f t="shared" ref="Q38" si="17">Q57*10^-9</f>
         <v>2.8622000000000001E-3</v>
       </c>
       <c r="R38" s="1">
@@ -8854,9 +14117,1193 @@
         <v>12.686954392923091</v>
       </c>
     </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1">
+        <f>B79*10^-9</f>
+        <v>4.4091E-3</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" ref="C60:C76" si="22">C79*10^-9</f>
+        <v>2.0305000000000002E-3</v>
+      </c>
+      <c r="P60" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>11</v>
+      </c>
+      <c r="R60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" ref="B61:C61" si="23">B80*10^-9</f>
+        <v>4.2572E-3</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="22"/>
+        <v>1.7609000000000001E-3</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="1">
+        <f>Q80*10^-9</f>
+        <v>1.2570000000000002E-4</v>
+      </c>
+      <c r="R61" s="1">
+        <f t="shared" ref="R61:R77" si="24">R80*10^-9</f>
+        <v>1.1190000000000001E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" ref="B62:C62" si="25">B81*10^-9</f>
+        <v>5.1868000000000001E-3</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="22"/>
+        <v>3.2460000000000002E-3</v>
+      </c>
+      <c r="P62">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" ref="Q62:R62" si="26">Q81*10^-9</f>
+        <v>1.156E-4</v>
+      </c>
+      <c r="R62" s="1">
+        <f t="shared" si="24"/>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" ref="B63:C63" si="27">B82*10^-9</f>
+        <v>4.6620000000000003E-3</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="22"/>
+        <v>2.0043999999999999E-3</v>
+      </c>
+      <c r="P63">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" ref="Q63:R63" si="28">Q82*10^-9</f>
+        <v>1.7380000000000002E-4</v>
+      </c>
+      <c r="R63" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7690000000000002E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" ref="B64:C64" si="29">B83*10^-9</f>
+        <v>5.3830000000000006E-3</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="22"/>
+        <v>2.3615000000000003E-3</v>
+      </c>
+      <c r="P64">
+        <v>8</v>
+      </c>
+      <c r="Q64" s="1">
+        <f t="shared" ref="Q64:R64" si="30">Q83*10^-9</f>
+        <v>1.284E-4</v>
+      </c>
+      <c r="R64" s="1">
+        <f t="shared" si="24"/>
+        <v>3.5190000000000004E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>32</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" ref="B65:C65" si="31">B84*10^-9</f>
+        <v>5.6064000000000001E-3</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="22"/>
+        <v>3.1774000000000004E-3</v>
+      </c>
+      <c r="P65">
+        <v>16</v>
+      </c>
+      <c r="Q65" s="1">
+        <f t="shared" ref="Q65:R65" si="32">Q84*10^-9</f>
+        <v>1.259E-4</v>
+      </c>
+      <c r="R65" s="1">
+        <f t="shared" si="24"/>
+        <v>1.1630000000000001E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" ref="B66:C66" si="33">B85*10^-9</f>
+        <v>8.6293000000000012E-3</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="22"/>
+        <v>3.1813000000000002E-3</v>
+      </c>
+      <c r="P66">
+        <v>32</v>
+      </c>
+      <c r="Q66" s="1">
+        <f t="shared" ref="Q66:R66" si="34">Q85*10^-9</f>
+        <v>2.0360000000000002E-4</v>
+      </c>
+      <c r="R66" s="1">
+        <f t="shared" si="24"/>
+        <v>8.2000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>128</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" ref="B67:C67" si="35">B86*10^-9</f>
+        <v>2.0110000000000003E-2</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="22"/>
+        <v>4.6361000000000006E-3</v>
+      </c>
+      <c r="P67">
+        <v>64</v>
+      </c>
+      <c r="Q67" s="1">
+        <f t="shared" ref="Q67:R67" si="36">Q86*10^-9</f>
+        <v>1.9490000000000002E-4</v>
+      </c>
+      <c r="R67" s="1">
+        <f t="shared" si="24"/>
+        <v>8.6900000000000012E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>256</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" ref="B68:C68" si="37">B87*10^-9</f>
+        <v>1.7133900000000001E-2</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="22"/>
+        <v>8.3727999999999997E-3</v>
+      </c>
+      <c r="P68">
+        <v>128</v>
+      </c>
+      <c r="Q68" s="1">
+        <f t="shared" ref="Q68:R68" si="38">Q87*10^-9</f>
+        <v>2.1290000000000002E-4</v>
+      </c>
+      <c r="R68" s="1">
+        <f t="shared" si="24"/>
+        <v>1.038E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>512</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" ref="B69:C69" si="39">B88*10^-9</f>
+        <v>2.4064000000000002E-2</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="22"/>
+        <v>1.19325E-2</v>
+      </c>
+      <c r="P69">
+        <v>256</v>
+      </c>
+      <c r="Q69" s="1">
+        <f t="shared" ref="Q69:R69" si="40">Q88*10^-9</f>
+        <v>3.0670000000000003E-4</v>
+      </c>
+      <c r="R69" s="1">
+        <f t="shared" si="24"/>
+        <v>7.75E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>1024</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" ref="B70:C70" si="41">B89*10^-9</f>
+        <v>2.7672400000000003E-2</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="22"/>
+        <v>1.8940500000000002E-2</v>
+      </c>
+      <c r="P70">
+        <v>512</v>
+      </c>
+      <c r="Q70" s="1">
+        <f t="shared" ref="Q70:R70" si="42">Q89*10^-9</f>
+        <v>2.03E-4</v>
+      </c>
+      <c r="R70" s="1">
+        <f t="shared" si="24"/>
+        <v>1.2550000000000001E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2048</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" ref="B71:C71" si="43">B90*10^-9</f>
+        <v>4.27552E-2</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="22"/>
+        <v>4.1499500000000002E-2</v>
+      </c>
+      <c r="P71">
+        <v>1024</v>
+      </c>
+      <c r="Q71" s="1">
+        <f t="shared" ref="Q71:R71" si="44">Q90*10^-9</f>
+        <v>2.7310000000000002E-4</v>
+      </c>
+      <c r="R71" s="1">
+        <f t="shared" si="24"/>
+        <v>1.1570000000000001E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>4096</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" ref="B72:C72" si="45">B91*10^-9</f>
+        <v>8.0240699999999998E-2</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="22"/>
+        <v>3.3354000000000002E-2</v>
+      </c>
+      <c r="P72">
+        <v>2048</v>
+      </c>
+      <c r="Q72" s="1">
+        <f t="shared" ref="Q72:R72" si="46">Q91*10^-9</f>
+        <v>2.3140000000000001E-4</v>
+      </c>
+      <c r="R72" s="1">
+        <f t="shared" si="24"/>
+        <v>9.48E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>8192</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" ref="B73:C73" si="47">B92*10^-9</f>
+        <v>0.1046489</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="22"/>
+        <v>7.2702200000000008E-2</v>
+      </c>
+      <c r="P73">
+        <v>4096</v>
+      </c>
+      <c r="Q73" s="1">
+        <f t="shared" ref="Q73:R73" si="48">Q92*10^-9</f>
+        <v>1.6678000000000001E-3</v>
+      </c>
+      <c r="R73" s="1">
+        <f t="shared" si="24"/>
+        <v>1.127E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>16384</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" ref="B74:C74" si="49">B93*10^-9</f>
+        <v>0.15221590000000002</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="22"/>
+        <v>0.10489200000000001</v>
+      </c>
+      <c r="P74">
+        <v>8192</v>
+      </c>
+      <c r="Q74" s="1">
+        <f t="shared" ref="Q74:R74" si="50">Q93*10^-9</f>
+        <v>5.4960000000000002E-4</v>
+      </c>
+      <c r="R74" s="1">
+        <f t="shared" si="24"/>
+        <v>1.0200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>32768</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" ref="B75:C75" si="51">B94*10^-9</f>
+        <v>0.47375560000000005</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="22"/>
+        <v>0.20500070000000001</v>
+      </c>
+      <c r="P75">
+        <v>16384</v>
+      </c>
+      <c r="Q75" s="1">
+        <f t="shared" ref="Q75:R75" si="52">Q94*10^-9</f>
+        <v>5.9170000000000002E-4</v>
+      </c>
+      <c r="R75" s="1">
+        <f t="shared" si="24"/>
+        <v>1.305E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>65536</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" ref="B76:C76" si="53">B95*10^-9</f>
+        <v>0.5639054</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="22"/>
+        <v>0.32805190000000001</v>
+      </c>
+      <c r="P76">
+        <v>32768</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" ref="Q76:R76" si="54">Q95*10^-9</f>
+        <v>1.8327E-3</v>
+      </c>
+      <c r="R76" s="1">
+        <f t="shared" si="24"/>
+        <v>2.2970000000000003E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="P77">
+        <v>65536</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" ref="Q77:R77" si="55">Q96*10^-9</f>
+        <v>5.1087000000000007E-3</v>
+      </c>
+      <c r="R77" s="1">
+        <f t="shared" si="24"/>
+        <v>2.5450000000000001E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" s="2">
+        <v>4409100</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2030500</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <f>LN(B79)</f>
+        <v>15.299181144962885</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" ref="G79:G95" si="56">LN(C79)</f>
+        <v>14.52379262610849</v>
+      </c>
+      <c r="P79" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>13</v>
+      </c>
+      <c r="R79" t="s">
+        <v>14</v>
+      </c>
+      <c r="T79" t="s">
+        <v>2</v>
+      </c>
+      <c r="U79" t="s">
+        <v>15</v>
+      </c>
+      <c r="V79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80" s="2">
+        <v>4257200</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1760900</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" ref="F80:F95" si="57">LN(B80)</f>
+        <v>15.264122225149027</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="56"/>
+        <v>14.381335599948869</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>125700</v>
+      </c>
+      <c r="R80" s="2">
+        <v>111900</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="U80" s="2">
+        <f>LN(Q80)</f>
+        <v>11.741653394578339</v>
+      </c>
+      <c r="V80" s="2">
+        <f t="shared" ref="V80:V96" si="58">LN(R80)</f>
+        <v>11.625360894300016</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2">
+        <v>5186800</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3246000</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="57"/>
+        <v>15.461627494656867</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="56"/>
+        <v>14.992934027056673</v>
+      </c>
+      <c r="P81">
+        <v>2</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>115600</v>
+      </c>
+      <c r="R81" s="2">
+        <v>100000</v>
+      </c>
+      <c r="T81">
+        <v>2</v>
+      </c>
+      <c r="U81" s="2">
+        <f t="shared" ref="U81:U96" si="59">LN(Q81)</f>
+        <v>11.657891235220415</v>
+      </c>
+      <c r="V81" s="2">
+        <f t="shared" si="58"/>
+        <v>11.512925464970229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82" s="2">
+        <v>4662000</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2004400</v>
+      </c>
+      <c r="E82">
+        <v>8</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="57"/>
+        <v>15.35495509857784</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="56"/>
+        <v>14.510855322067707</v>
+      </c>
+      <c r="P82">
+        <v>4</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>173800</v>
+      </c>
+      <c r="R82" s="2">
+        <v>176900</v>
+      </c>
+      <c r="T82">
+        <v>4</v>
+      </c>
+      <c r="U82" s="2">
+        <f t="shared" si="59"/>
+        <v>12.065660491813428</v>
+      </c>
+      <c r="V82" s="2">
+        <f t="shared" si="58"/>
+        <v>12.083339880147877</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>16</v>
+      </c>
+      <c r="B83" s="2">
+        <v>5383000</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2361500</v>
+      </c>
+      <c r="E83">
+        <v>16</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="57"/>
+        <v>15.498756397543094</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="56"/>
+        <v>14.674807568318309</v>
+      </c>
+      <c r="P83">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>128400</v>
+      </c>
+      <c r="R83" s="2">
+        <v>351900</v>
+      </c>
+      <c r="T83">
+        <v>8</v>
+      </c>
+      <c r="U83" s="2">
+        <f t="shared" si="59"/>
+        <v>11.762905670237998</v>
+      </c>
+      <c r="V83" s="2">
+        <f t="shared" si="58"/>
+        <v>12.771102323309677</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>32</v>
+      </c>
+      <c r="B84" s="2">
+        <v>5606400</v>
+      </c>
+      <c r="C84" s="2">
+        <v>3177400</v>
+      </c>
+      <c r="E84">
+        <v>32</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="57"/>
+        <v>15.539419360284155</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="56"/>
+        <v>14.97157381026806</v>
+      </c>
+      <c r="P84">
+        <v>16</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>125900</v>
+      </c>
+      <c r="R84" s="2">
+        <v>116300</v>
+      </c>
+      <c r="T84">
+        <v>16</v>
+      </c>
+      <c r="U84" s="2">
+        <f t="shared" si="59"/>
+        <v>11.743243220032438</v>
+      </c>
+      <c r="V84" s="2">
+        <f t="shared" si="58"/>
+        <v>11.663928338506755</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>64</v>
+      </c>
+      <c r="B85" s="2">
+        <v>8629300</v>
+      </c>
+      <c r="C85" s="2">
+        <v>3181300</v>
+      </c>
+      <c r="E85">
+        <v>64</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="57"/>
+        <v>15.970673947371212</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="56"/>
+        <v>14.972800476249796</v>
+      </c>
+      <c r="P85">
+        <v>32</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>203600</v>
+      </c>
+      <c r="R85" s="2">
+        <v>82000</v>
+      </c>
+      <c r="T85">
+        <v>32</v>
+      </c>
+      <c r="U85" s="2">
+        <f t="shared" si="59"/>
+        <v>12.223912563658505</v>
+      </c>
+      <c r="V85" s="2">
+        <f t="shared" si="58"/>
+        <v>11.314474526246391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>128</v>
+      </c>
+      <c r="B86" s="2">
+        <v>20110000</v>
+      </c>
+      <c r="C86" s="2">
+        <v>4636100</v>
+      </c>
+      <c r="E86">
+        <v>128</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="57"/>
+        <v>16.816727761748833</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="56"/>
+        <v>15.349384053528384</v>
+      </c>
+      <c r="P86">
+        <v>64</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>194900</v>
+      </c>
+      <c r="R86" s="2">
+        <v>86900</v>
+      </c>
+      <c r="T86">
+        <v>64</v>
+      </c>
+      <c r="U86" s="2">
+        <f t="shared" si="59"/>
+        <v>12.180241885495652</v>
+      </c>
+      <c r="V86" s="2">
+        <f t="shared" si="58"/>
+        <v>11.372513311253483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>256</v>
+      </c>
+      <c r="B87" s="2">
+        <v>17133900</v>
+      </c>
+      <c r="C87" s="2">
+        <v>8372800</v>
+      </c>
+      <c r="E87">
+        <v>256</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="57"/>
+        <v>16.656569515140315</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="56"/>
+        <v>15.940498914600081</v>
+      </c>
+      <c r="P87">
+        <v>128</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>212900</v>
+      </c>
+      <c r="R87" s="2">
+        <v>103800</v>
+      </c>
+      <c r="T87">
+        <v>128</v>
+      </c>
+      <c r="U87" s="2">
+        <f t="shared" si="59"/>
+        <v>12.26857785088157</v>
+      </c>
+      <c r="V87" s="2">
+        <f t="shared" si="58"/>
+        <v>11.550221249713925</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>512</v>
+      </c>
+      <c r="B88" s="2">
+        <v>24064000</v>
+      </c>
+      <c r="C88" s="2">
+        <v>11932500</v>
+      </c>
+      <c r="E88">
+        <v>512</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="57"/>
+        <v>16.996227505731703</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="56"/>
+        <v>16.294776327862188</v>
+      </c>
+      <c r="P88">
+        <v>256</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>306700</v>
+      </c>
+      <c r="R88" s="2">
+        <v>77500</v>
+      </c>
+      <c r="T88">
+        <v>256</v>
+      </c>
+      <c r="U88" s="2">
+        <f t="shared" si="59"/>
+        <v>12.633625350102342</v>
+      </c>
+      <c r="V88" s="2">
+        <f t="shared" si="58"/>
+        <v>11.258033215341438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>1024</v>
+      </c>
+      <c r="B89" s="2">
+        <v>27672400</v>
+      </c>
+      <c r="C89" s="2">
+        <v>18940500</v>
+      </c>
+      <c r="E89">
+        <v>1024</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="57"/>
+        <v>17.13594608453948</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="56"/>
+        <v>16.756813044528982</v>
+      </c>
+      <c r="P89">
+        <v>512</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>203000</v>
+      </c>
+      <c r="R89" s="2">
+        <v>125500</v>
+      </c>
+      <c r="T89">
+        <v>512</v>
+      </c>
+      <c r="U89" s="2">
+        <f t="shared" si="59"/>
+        <v>12.220961258023925</v>
+      </c>
+      <c r="V89" s="2">
+        <f t="shared" si="58"/>
+        <v>11.740061037553975</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2048</v>
+      </c>
+      <c r="B90" s="2">
+        <v>42755200</v>
+      </c>
+      <c r="C90" s="2">
+        <v>41499500</v>
+      </c>
+      <c r="E90">
+        <v>2048</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="57"/>
+        <v>17.571001383376711</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="56"/>
+        <v>17.541191936935576</v>
+      </c>
+      <c r="P90">
+        <v>1024</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>273100</v>
+      </c>
+      <c r="R90" s="2">
+        <v>115700</v>
+      </c>
+      <c r="T90">
+        <v>1024</v>
+      </c>
+      <c r="U90" s="2">
+        <f t="shared" si="59"/>
+        <v>12.517593307461796</v>
+      </c>
+      <c r="V90" s="2">
+        <f t="shared" si="58"/>
+        <v>11.658755913181768</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>4096</v>
+      </c>
+      <c r="B91" s="2">
+        <v>80240700</v>
+      </c>
+      <c r="C91" s="2">
+        <v>33354000</v>
+      </c>
+      <c r="E91">
+        <v>4096</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="57"/>
+        <v>18.200541425408417</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="56"/>
+        <v>17.322688263163663</v>
+      </c>
+      <c r="P91">
+        <v>2048</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>231400</v>
+      </c>
+      <c r="R91" s="2">
+        <v>94800</v>
+      </c>
+      <c r="T91">
+        <v>2048</v>
+      </c>
+      <c r="U91" s="2">
+        <f t="shared" si="59"/>
+        <v>12.351903093741713</v>
+      </c>
+      <c r="V91" s="2">
+        <f t="shared" si="58"/>
+        <v>11.459524688243112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>8192</v>
+      </c>
+      <c r="B92" s="2">
+        <v>104648900</v>
+      </c>
+      <c r="C92" s="2">
+        <v>72702200</v>
+      </c>
+      <c r="E92">
+        <v>8192</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="57"/>
+        <v>18.466121495573137</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="56"/>
+        <v>18.101882203393888</v>
+      </c>
+      <c r="P92">
+        <v>4096</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>1667800</v>
+      </c>
+      <c r="R92" s="2">
+        <v>112700</v>
+      </c>
+      <c r="T92">
+        <v>4096</v>
+      </c>
+      <c r="U92" s="2">
+        <f t="shared" si="59"/>
+        <v>14.327015950635023</v>
+      </c>
+      <c r="V92" s="2">
+        <f t="shared" si="58"/>
+        <v>11.632484700027868</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>16384</v>
+      </c>
+      <c r="B93" s="2">
+        <v>152215900</v>
+      </c>
+      <c r="C93" s="2">
+        <v>104892000</v>
+      </c>
+      <c r="E93">
+        <v>16384</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="57"/>
+        <v>18.840810465740997</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="56"/>
+        <v>18.468441807350626</v>
+      </c>
+      <c r="P93">
+        <v>8192</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>549600</v>
+      </c>
+      <c r="R93" s="2">
+        <v>102000</v>
+      </c>
+      <c r="T93">
+        <v>8192</v>
+      </c>
+      <c r="U93" s="2">
+        <f t="shared" si="59"/>
+        <v>13.216946019890276</v>
+      </c>
+      <c r="V93" s="2">
+        <f t="shared" si="58"/>
+        <v>11.532728092266408</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>32768</v>
+      </c>
+      <c r="B94" s="2">
+        <v>473755600</v>
+      </c>
+      <c r="C94" s="2">
+        <v>205000700</v>
+      </c>
+      <c r="E94">
+        <v>32768</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="57"/>
+        <v>19.976202134871521</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="56"/>
+        <v>19.138523951730999</v>
+      </c>
+      <c r="P94">
+        <v>16384</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>591700</v>
+      </c>
+      <c r="R94" s="2">
+        <v>130500</v>
+      </c>
+      <c r="T94">
+        <v>16384</v>
+      </c>
+      <c r="U94" s="2">
+        <f t="shared" si="59"/>
+        <v>13.290755028664785</v>
+      </c>
+      <c r="V94" s="2">
+        <f t="shared" si="58"/>
+        <v>11.779128505744886</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>65536</v>
+      </c>
+      <c r="B95" s="2">
+        <v>563905400</v>
+      </c>
+      <c r="C95" s="2">
+        <v>328051900</v>
+      </c>
+      <c r="E95">
+        <v>65536</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="57"/>
+        <v>20.150397064897547</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="56"/>
+        <v>19.608682385538419</v>
+      </c>
+      <c r="P95">
+        <v>32768</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>1832700</v>
+      </c>
+      <c r="R95" s="2">
+        <v>229700</v>
+      </c>
+      <c r="T95">
+        <v>32768</v>
+      </c>
+      <c r="U95" s="2">
+        <f t="shared" si="59"/>
+        <v>14.421300847305968</v>
+      </c>
+      <c r="V95" s="2">
+        <f t="shared" si="58"/>
+        <v>12.34452938867719</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="P96">
+        <v>65536</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>5108700</v>
+      </c>
+      <c r="R96" s="2">
+        <v>254500</v>
+      </c>
+      <c r="T96">
+        <v>65536</v>
+      </c>
+      <c r="U96" s="2">
+        <f t="shared" si="59"/>
+        <v>15.446455526682806</v>
+      </c>
+      <c r="V96" s="2">
+        <f t="shared" si="58"/>
+        <v>12.447056114972714</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P22:R38">
-    <sortCondition ref="P22:P38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P80:R96">
+    <sortCondition ref="P80:P96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
